--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ereg-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ereg-Erbb4.xlsx
@@ -531,7 +531,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07490066666666666</v>
+        <v>0.07490066666666667</v>
       </c>
       <c r="H2">
         <v>0.224702</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0005310956604444443</v>
+        <v>0.0005310956604444445</v>
       </c>
       <c r="R2">
-        <v>0.004779860943999999</v>
+        <v>0.004779860944</v>
       </c>
       <c r="S2">
         <v>1</v>
